--- a/Теория принятия решений/L2/npro/Отчет/ОТЧЕТ.xlsx
+++ b/Теория принятия решений/L2/npro/Отчет/ОТЧЕТ.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId3"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="37">
   <si>
     <t xml:space="preserve">Название сети</t>
   </si>
@@ -85,9 +85,6 @@
   </si>
   <si>
     <t xml:space="preserve">10-10-10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bounds_Network22_22_7</t>
   </si>
   <si>
     <t xml:space="preserve">Метод упрощения сети</t>
@@ -136,9 +133,6 @@
   <si>
     <t xml:space="preserve">Сопряженные
 градиенты</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.39</t>
   </si>
   <si>
     <t xml:space="preserve">BFGS</t>
@@ -185,10 +179,10 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <charset val="1"/>
+      <charset val="204"/>
     </font>
   </fonts>
   <fills count="3">
@@ -246,7 +240,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -293,6 +287,10 @@
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
@@ -554,20 +552,20 @@
   </sheetPr>
   <dimension ref="A1:H9"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F9" activeCellId="0" sqref="F9"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="170" zoomScaleNormal="170" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H2" activeCellId="0" sqref="H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="15" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="15" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="28"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="11.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="15.85"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="23.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="14.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="14.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="16.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="19.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="22.95"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="12.04"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="15.46"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="21.88"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="13.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="13.22"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="8.61"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="16.75"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -760,7 +758,7 @@
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="5" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -781,8 +779,8 @@
   </sheetPr>
   <dimension ref="A1:D9"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="145" zoomScaleNormal="145" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A12" activeCellId="0" sqref="A12"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="170" zoomScaleNormal="170" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A6" activeCellId="0" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="15" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -795,105 +793,105 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B1" s="6" t="s">
         <v>6</v>
       </c>
       <c r="C1" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1" s="7" t="s">
         <v>23</v>
-      </c>
-      <c r="D1" s="7" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B2" s="8" t="n">
-        <v>853.41</v>
+        <v>53.82</v>
       </c>
       <c r="C2" s="8" t="n">
-        <v>55.3</v>
+        <v>6.11</v>
       </c>
       <c r="D2" s="8" t="n">
-        <v>72.91</v>
+        <v>9.74</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B3" s="8" t="n">
-        <v>943.14</v>
+        <v>29.27</v>
       </c>
       <c r="C3" s="8" t="n">
-        <v>36.98</v>
+        <v>5.09</v>
       </c>
       <c r="D3" s="8" t="n">
-        <v>72.36</v>
+        <v>9.75</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B4" s="8" t="n">
-        <v>859.97</v>
+        <v>13.63</v>
       </c>
       <c r="C4" s="8" t="n">
-        <v>50.93</v>
+        <v>5.39</v>
       </c>
       <c r="D4" s="8" t="n">
-        <v>71.86</v>
+        <v>9.06</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B5" s="8" t="n">
+        <v>71.76</v>
+      </c>
+      <c r="C5" s="8" t="n">
+        <v>6.01</v>
+      </c>
+      <c r="D5" s="8" t="n">
+        <v>9.79</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="23.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="B5" s="8" t="n">
-        <v>836.94</v>
-      </c>
-      <c r="C5" s="8" t="n">
-        <v>59.02</v>
-      </c>
-      <c r="D5" s="8" t="n">
-        <v>72.48</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="9" t="s">
+      <c r="B6" s="8" t="n">
+        <v>47.38</v>
+      </c>
+      <c r="C6" s="8" t="n">
+        <v>5.37</v>
+      </c>
+      <c r="D6" s="8" t="n">
+        <v>9.61</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="23.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="B6" s="8" t="n">
-        <v>873.56</v>
-      </c>
-      <c r="C6" s="8" t="n">
-        <v>41.24</v>
-      </c>
-      <c r="D6" s="8" t="n">
-        <v>56.42</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="9" t="s">
-        <v>30</v>
-      </c>
       <c r="B7" s="8" t="n">
-        <v>977.33</v>
+        <v>50.51</v>
       </c>
       <c r="C7" s="8" t="n">
-        <v>57.12</v>
+        <v>5.31</v>
       </c>
       <c r="D7" s="8" t="n">
-        <v>72.86</v>
+        <v>9.45</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -914,8 +912,8 @@
   </sheetPr>
   <dimension ref="A1:F7"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B11" activeCellId="0" sqref="B11"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="170" zoomScaleNormal="170" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A5" activeCellId="0" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="15" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -930,7 +928,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>3</v>
@@ -948,94 +946,98 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="23.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B2" s="3" t="n">
-        <v>174</v>
+        <v>575</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>74.58</v>
+        <v>27.56</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>32.49</v>
+        <v>10.47</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>951.15</v>
-      </c>
-      <c r="F2" s="4" t="n">
-        <v>-46.15</v>
+        <v>69.56</v>
+      </c>
+      <c r="F2" s="12" t="n">
+        <f aca="false">ABS(E2-48)</f>
+        <v>21.56</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B3" s="3" t="n">
-        <v>55</v>
+        <v>120</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>66.12</v>
+        <v>20.97</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>23.79</v>
+        <v>6.68</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>909.02</v>
-      </c>
-      <c r="F3" s="4" t="n">
-        <v>-4.02</v>
+        <v>66.86</v>
+      </c>
+      <c r="F3" s="12" t="n">
+        <f aca="false">ABS(E3-48)</f>
+        <v>18.86</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B4" s="3" t="n">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>52.2</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>36</v>
+        <v>14.76</v>
+      </c>
+      <c r="D4" s="4" t="n">
+        <v>14.76</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>923.16</v>
-      </c>
-      <c r="F4" s="4" t="n">
-        <v>-18.16</v>
+        <v>63.18</v>
+      </c>
+      <c r="F4" s="12" t="n">
+        <f aca="false">ABS(E4-48)</f>
+        <v>15.18</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B5" s="3" t="n">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>33.94</v>
+        <v>11.88</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>14.09</v>
+        <v>6.43</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>907.31</v>
-      </c>
-      <c r="F5" s="4" t="n">
-        <v>-2.31</v>
+        <v>67.27</v>
+      </c>
+      <c r="F5" s="12" t="n">
+        <f aca="false">ABS(E5-48)</f>
+        <v>19.27</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B6" s="12"/>
+      <c r="B6" s="13"/>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="B7" s="12"/>
+      <c r="A7" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="B7" s="13"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
